--- a/assignment3/data/loinc_dataset-v2.xlsx
+++ b/assignment3/data/loinc_dataset-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\Documents\universidad\Master\Segundo semestre\information-retrieval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serms/git/information-retrieval/assignment3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B093B63D-C6A8-4B1D-925B-D6C2B5CC98B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F7E846-12C9-1747-9A7A-11061541394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose in blood" sheetId="1" r:id="rId1"/>
@@ -1065,21 +1065,21 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:F108"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>171</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -2247,23 +2247,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="F72" sqref="F71:F105"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65:F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -2296,11 +2296,8 @@
       <c r="E4" t="s">
         <v>150</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2316,11 +2313,8 @@
       <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2336,11 +2330,8 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2356,11 +2347,8 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -2376,11 +2364,8 @@
       <c r="E8" t="s">
         <v>112</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -2396,11 +2381,8 @@
       <c r="E9" t="s">
         <v>112</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -2416,11 +2398,8 @@
       <c r="E10" t="s">
         <v>133</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -2436,11 +2415,8 @@
       <c r="E11" t="s">
         <v>128</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2456,11 +2432,8 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -2476,11 +2449,8 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -2496,11 +2466,8 @@
       <c r="E14" t="s">
         <v>121</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -2516,11 +2483,8 @@
       <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -2536,11 +2500,8 @@
       <c r="E16" t="s">
         <v>112</v>
       </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -2556,11 +2517,8 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2576,11 +2534,8 @@
       <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2596,11 +2551,8 @@
       <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -2616,11 +2568,8 @@
       <c r="E20" t="s">
         <v>128</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -2636,11 +2585,8 @@
       <c r="E21" t="s">
         <v>174</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -2656,11 +2602,8 @@
       <c r="E22" t="s">
         <v>112</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -2676,11 +2619,8 @@
       <c r="E23" t="s">
         <v>112</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -2696,11 +2636,8 @@
       <c r="E24" t="s">
         <v>112</v>
       </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -2716,11 +2653,8 @@
       <c r="E25" t="s">
         <v>133</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -2736,11 +2670,8 @@
       <c r="E26" t="s">
         <v>128</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -2756,11 +2687,8 @@
       <c r="E27" t="s">
         <v>36</v>
       </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -2776,11 +2704,8 @@
       <c r="E28" t="s">
         <v>102</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2796,11 +2721,8 @@
       <c r="E29" t="s">
         <v>34</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -2816,11 +2738,8 @@
       <c r="E30" t="s">
         <v>128</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -2836,11 +2755,8 @@
       <c r="E31" t="s">
         <v>112</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -2856,11 +2772,8 @@
       <c r="E32" t="s">
         <v>36</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2876,11 +2789,8 @@
       <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2896,11 +2806,8 @@
       <c r="E34" t="s">
         <v>36</v>
       </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2916,11 +2823,8 @@
       <c r="E35" t="s">
         <v>34</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2936,11 +2840,8 @@
       <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -2956,11 +2857,8 @@
       <c r="E37" t="s">
         <v>36</v>
       </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -2976,11 +2874,8 @@
       <c r="E38" t="s">
         <v>36</v>
       </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2996,11 +2891,8 @@
       <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -3016,11 +2908,8 @@
       <c r="E40" t="s">
         <v>36</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3036,11 +2925,8 @@
       <c r="E41" t="s">
         <v>36</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -3056,11 +2942,8 @@
       <c r="E42" t="s">
         <v>112</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -3076,11 +2959,8 @@
       <c r="E43" t="s">
         <v>26</v>
       </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -3096,11 +2976,8 @@
       <c r="E44" t="s">
         <v>133</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3116,11 +2993,8 @@
       <c r="E45" t="s">
         <v>34</v>
       </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -3136,11 +3010,8 @@
       <c r="E46" t="s">
         <v>128</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -3156,11 +3027,8 @@
       <c r="E47" t="s">
         <v>30</v>
       </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -3176,11 +3044,8 @@
       <c r="E48" t="s">
         <v>36</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -3196,11 +3061,8 @@
       <c r="E49" t="s">
         <v>36</v>
       </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3216,11 +3078,8 @@
       <c r="E50" t="s">
         <v>34</v>
       </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3236,11 +3095,8 @@
       <c r="E51" t="s">
         <v>34</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -3256,11 +3112,8 @@
       <c r="E52" t="s">
         <v>133</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -3276,11 +3129,8 @@
       <c r="E53" t="s">
         <v>128</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -3296,11 +3146,8 @@
       <c r="E54" t="s">
         <v>112</v>
       </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>195</v>
       </c>
@@ -3316,11 +3163,8 @@
       <c r="E55" t="s">
         <v>34</v>
       </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -3336,11 +3180,8 @@
       <c r="E56" t="s">
         <v>34</v>
       </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3356,11 +3197,8 @@
       <c r="E57" t="s">
         <v>35</v>
       </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -3376,11 +3214,8 @@
       <c r="E58" t="s">
         <v>34</v>
       </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -3396,11 +3231,8 @@
       <c r="E59" t="s">
         <v>60</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -3416,11 +3248,8 @@
       <c r="E60" t="s">
         <v>146</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -3436,11 +3265,8 @@
       <c r="E61" t="s">
         <v>60</v>
       </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -3456,11 +3282,8 @@
       <c r="E62" t="s">
         <v>34</v>
       </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -3476,11 +3299,8 @@
       <c r="E63" t="s">
         <v>36</v>
       </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -3496,11 +3316,8 @@
       <c r="E64" t="s">
         <v>112</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -3516,11 +3333,8 @@
       <c r="E65" t="s">
         <v>56</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -3536,11 +3350,8 @@
       <c r="E66" t="s">
         <v>60</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -3556,11 +3367,8 @@
       <c r="E67" t="s">
         <v>36</v>
       </c>
-      <c r="F67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -3576,11 +3384,8 @@
       <c r="E68" t="s">
         <v>34</v>
       </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -3596,11 +3401,8 @@
       <c r="E69" t="s">
         <v>51</v>
       </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -3615,9 +3417,6 @@
       </c>
       <c r="E70" t="s">
         <v>36</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3634,20 +3433,20 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3664,7 +3463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -3681,7 +3480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -3698,7 +3497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3715,7 +3514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -3732,7 +3531,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -3749,7 +3548,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3783,7 +3582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -3800,7 +3599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3817,7 +3616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3834,7 +3633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3851,7 +3650,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3868,7 +3667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3885,7 +3684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -3902,7 +3701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -3919,7 +3718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -3936,7 +3735,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -3953,7 +3752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -3970,7 +3769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3987,7 +3786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4004,7 +3803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -4021,7 +3820,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -4038,7 +3837,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -4055,7 +3854,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -4072,7 +3871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -4089,7 +3888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -4106,7 +3905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4123,7 +3922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -4140,7 +3939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -4157,7 +3956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -4174,7 +3973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -4191,7 +3990,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4208,7 +4007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4225,7 +4024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -4242,7 +4041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4259,7 +4058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>210</v>
       </c>
@@ -4276,7 +4075,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -4293,7 +4092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -4310,7 +4109,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -4327,7 +4126,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -4344,7 +4143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -4361,7 +4160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -4378,7 +4177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -4395,7 +4194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -4412,7 +4211,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -4429,7 +4228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -4446,7 +4245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -4463,7 +4262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -4480,7 +4279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -4497,7 +4296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -4514,7 +4313,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -4531,7 +4330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4548,7 +4347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -4565,7 +4364,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -4582,7 +4381,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -4599,7 +4398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4616,7 +4415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>216</v>
       </c>
@@ -4633,7 +4432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -4650,7 +4449,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -4667,7 +4466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -4684,7 +4483,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -4701,7 +4500,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -4718,7 +4517,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -4735,7 +4534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>171</v>
       </c>
@@ -4752,7 +4551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -4769,7 +4568,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -4786,7 +4585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>204</v>
       </c>
